--- a/06-pandas/data/mi_df_colores.xlsx
+++ b/06-pandas/data/mi_df_colores.xlsx
@@ -1,28 +1,290 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ale\Documents\GitHub\py-macas-cevallos-alexandra-vanessa\06-pandas\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE306F-8E6A-4B67-B862-534391147230}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Artistas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>Gill, Eric</t>
+  </si>
+  <si>
+    <t>Paolozzi, Sir Eduardo</t>
+  </si>
+  <si>
+    <t>Jones, Allen</t>
+  </si>
+  <si>
+    <t>Wols</t>
+  </si>
+  <si>
+    <t>Piper, John</t>
+  </si>
+  <si>
+    <t>Pissarro, Lucien</t>
+  </si>
+  <si>
+    <t>Tilson, Joe</t>
+  </si>
+  <si>
+    <t>House, Gordon</t>
+  </si>
+  <si>
+    <t>Winner, Gerd</t>
+  </si>
+  <si>
+    <t>Pasmore, Victor</t>
+  </si>
+  <si>
+    <t>Tyson, Ian</t>
+  </si>
+  <si>
+    <t>Collins, Cecil</t>
+  </si>
+  <si>
+    <t>Nicholson, Sir William</t>
+  </si>
+  <si>
+    <t>Rothenstein, Sir William</t>
+  </si>
+  <si>
+    <t>Kokoschka, Oskar</t>
+  </si>
+  <si>
+    <t>Fry, Roger</t>
+  </si>
+  <si>
+    <t>Frost, Sir Terry</t>
+  </si>
+  <si>
+    <t>Palmer, Roger</t>
+  </si>
+  <si>
+    <t>Nash, John</t>
+  </si>
+  <si>
+    <t>Mordmüller, Rainer G</t>
+  </si>
+  <si>
+    <t>Stephenson, Ian</t>
+  </si>
+  <si>
+    <t>Valoch, Jiri</t>
+  </si>
+  <si>
+    <t>Brus, Günter</t>
+  </si>
+  <si>
+    <t>Ayrton, Michael</t>
+  </si>
+  <si>
+    <t>Vasarely, Victor</t>
+  </si>
+  <si>
+    <t>Hodgkin, Howard</t>
+  </si>
+  <si>
+    <t>Manessier, Alfred</t>
+  </si>
+  <si>
+    <t>Matisse, Henri</t>
+  </si>
+  <si>
+    <t>Murphy, John</t>
+  </si>
+  <si>
+    <t>Spencer, Sir Stanley</t>
+  </si>
+  <si>
+    <t>Guston, Philip</t>
+  </si>
+  <si>
+    <t>Soulages, Pierre</t>
+  </si>
+  <si>
+    <t>Sutherland, Graham, OM</t>
+  </si>
+  <si>
+    <t>Neiland, Brendan</t>
+  </si>
+  <si>
+    <t>Wentworth, Richard</t>
+  </si>
+  <si>
+    <t>Hayter, Stanley William</t>
+  </si>
+  <si>
+    <t>Rainer, Arnulf</t>
+  </si>
+  <si>
+    <t>Beuys, Joseph</t>
+  </si>
+  <si>
+    <t>Appel, Karel</t>
+  </si>
+  <si>
+    <t>Dine, Jim</t>
+  </si>
+  <si>
+    <t>London Gallery</t>
+  </si>
+  <si>
+    <t>Frohner, Adolf</t>
+  </si>
+  <si>
+    <t>Schneider, Gerard</t>
+  </si>
+  <si>
+    <t>Blake, Peter</t>
+  </si>
+  <si>
+    <t>Maccari, Mino</t>
+  </si>
+  <si>
+    <t>Herring, Ed</t>
+  </si>
+  <si>
+    <t>Pomodoro, Gio</t>
+  </si>
+  <si>
+    <t>Phillips, Esq Tom</t>
+  </si>
+  <si>
+    <t>Baselitz, Georg</t>
+  </si>
+  <si>
+    <t>Lindström, Bengt</t>
+  </si>
+  <si>
+    <t>Bird, John</t>
+  </si>
+  <si>
+    <t>Laabs, Hans</t>
+  </si>
+  <si>
+    <t>Park, Alistair</t>
+  </si>
+  <si>
+    <t>Salt, John</t>
+  </si>
+  <si>
+    <t>Cutts, Simon</t>
+  </si>
+  <si>
+    <t>Cuixart, Modestos</t>
+  </si>
+  <si>
+    <t>King, Ronald</t>
+  </si>
+  <si>
+    <t>Kunkel, Don</t>
+  </si>
+  <si>
+    <t>Le Parc, Julio</t>
+  </si>
+  <si>
+    <t>Thomkins, André</t>
+  </si>
+  <si>
+    <t>Lattanzi, Luciano</t>
+  </si>
+  <si>
+    <t>Abrahams, Ivor</t>
+  </si>
+  <si>
+    <t>Ackroyd, Norman</t>
+  </si>
+  <si>
+    <t>Irvin, Albert</t>
+  </si>
+  <si>
+    <t>Fabro, Luciano</t>
+  </si>
+  <si>
+    <t>Hamilton Finlay, Ian</t>
+  </si>
+  <si>
+    <t>Rocamora, Jaume</t>
+  </si>
+  <si>
+    <t>Braque, Georges</t>
+  </si>
+  <si>
+    <t>Grayson, Roy</t>
+  </si>
+  <si>
+    <t>Disler, Martin</t>
+  </si>
+  <si>
+    <t>Nevinson, Christopher Richard Wynne</t>
+  </si>
+  <si>
+    <t>Loker, John</t>
+  </si>
+  <si>
+    <t>Illes, Arpad</t>
+  </si>
+  <si>
+    <t>Benjamin, Anthony</t>
+  </si>
+  <si>
+    <t>Blake, John</t>
+  </si>
+  <si>
+    <t>Tamayo, Rufino</t>
+  </si>
+  <si>
+    <t>Götz, Professor Karl-Otto</t>
+  </si>
+  <si>
+    <t>Trevelyan, Julian</t>
+  </si>
+  <si>
+    <t>Wunderlich, Paul</t>
+  </si>
+  <si>
+    <t>Baumeister, Willi</t>
+  </si>
+  <si>
+    <t>Stezaker, John</t>
+  </si>
+  <si>
+    <t>Downsbrough, Peter</t>
+  </si>
+  <si>
+    <t>Benrath, Frédéric</t>
+  </si>
+  <si>
+    <t>Art &amp; Language (Michael Baldwin, born 1945; Mel Ramsden, born 1944)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -38,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,428 +308,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A804-43AE-925B-659D980D91FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,27 +416,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,24 +450,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,435 +625,701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B85">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="99"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>